--- a/assets/empresas_victoria.xlsx
+++ b/assets/empresas_victoria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Skylight/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tegik/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,13 +293,13 @@
     <t>FFJ940117548</t>
   </si>
   <si>
-    <t>TLT920116HK0</t>
-  </si>
-  <si>
     <t>TOT090606968</t>
   </si>
   <si>
     <t>USV000630JT1</t>
+  </si>
+  <si>
+    <t>TLT920116HKO</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
